--- a/Nxyz.xlsx
+++ b/Nxyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcfredericdrenhauscoll/Google Drive/aa UNI UPC/4rt any/PGTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9864E5A-F537-4241-AEEF-987D7DCD8B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65C836-6DE3-4041-948A-4EDF23E5E707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{812200DF-6BD1-874E-A84D-1311BAD91F51}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>OBST_Tipo</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>en cono</t>
+  </si>
+  <si>
+    <t>cono2</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9541BB69-487B-A348-9329-0F38628A957F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,6 +518,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nxyz.xlsx
+++ b/Nxyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcfredericdrenhauscoll/Google Drive/aa UNI UPC/4rt any/PGTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65C836-6DE3-4041-948A-4EDF23E5E707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179C0C-C103-9B41-9496-2C18A78ADDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{812200DF-6BD1-874E-A84D-1311BAD91F51}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>OBST_Tipo</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>cono2</t>
+  </si>
+  <si>
+    <t>aprox2</t>
+  </si>
+  <si>
+    <t>aprox3</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9541BB69-487B-A348-9329-0F38628A957F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,6 +538,34 @@
         <v>144</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-5000</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>-10000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nxyz.xlsx
+++ b/Nxyz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcfredericdrenhauscoll/Google Drive/aa UNI UPC/4rt any/PGTA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8179C0C-C103-9B41-9496-2C18A78ADDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF23C252-9FE3-6A48-9F75-2B96D4F36B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{812200DF-6BD1-874E-A84D-1311BAD91F51}"/>
+    <workbookView xWindow="1680" yWindow="800" windowWidth="28800" windowHeight="16400" xr2:uid="{812200DF-6BD1-874E-A84D-1311BAD91F51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>OBST_Tipo</t>
   </si>
@@ -45,41 +45,95 @@
     <t>Altura (m)</t>
   </si>
   <si>
-    <t>1 WDI</t>
-  </si>
-  <si>
-    <t>2 WDI</t>
-  </si>
-  <si>
-    <t>TOWER CONTROL</t>
-  </si>
-  <si>
-    <t>VOR/DME</t>
-  </si>
-  <si>
-    <t>en cono</t>
-  </si>
-  <si>
-    <t>cono2</t>
-  </si>
-  <si>
-    <t>aprox2</t>
-  </si>
-  <si>
-    <t>aprox3</t>
+    <t>LVDA - MT - 0001 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0002 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0003 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0004 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0005 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0006 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0007 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0008 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0009 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0010 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0011 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0012 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0013 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0014 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0015 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0016 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0017 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0018 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0019 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0020 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0021 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0022 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MT - 0023 - 2021</t>
+  </si>
+  <si>
+    <t>LVDA - MR - 0024 - 2021 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,9 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9541BB69-487B-A348-9329-0F38628A957F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +496,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,121 +510,368 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="C2">
-        <v>-170</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D2" s="3">
+        <v>179</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2200</v>
+        <v>8660</v>
       </c>
       <c r="C3">
-        <f>C2</f>
-        <v>-170</v>
-      </c>
-      <c r="D3">
-        <f>D2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1880</v>
+      </c>
+      <c r="D3" s="3">
+        <v>635</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1850</v>
+        <v>1540</v>
       </c>
       <c r="C4">
-        <v>-250</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+      <c r="D4" s="3">
+        <v>76</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-430</v>
+        <v>6750</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+      <c r="D5" s="3">
+        <v>174</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>12050</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2330</v>
+      </c>
+      <c r="D6" s="3">
+        <v>900</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10810</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="D7" s="3">
+        <v>890</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-5000</v>
+        <v>10900</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>766</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-10000</v>
+        <v>11820</v>
       </c>
       <c r="C9">
+        <v>2420</v>
+      </c>
+      <c r="D9" s="3">
+        <v>930</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>10120</v>
+      </c>
+      <c r="C10">
+        <v>1314</v>
+      </c>
+      <c r="D10" s="3">
+        <v>680</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>11124</v>
+      </c>
+      <c r="C11">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="3">
+        <v>825</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>9750</v>
+      </c>
+      <c r="C12">
+        <v>2330</v>
+      </c>
+      <c r="D12" s="3">
+        <v>697</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>11930</v>
+      </c>
+      <c r="C13">
+        <v>3750</v>
+      </c>
+      <c r="D13" s="3">
+        <v>896</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>11730</v>
+      </c>
+      <c r="C14">
+        <v>3700</v>
+      </c>
+      <c r="D14" s="3">
+        <v>720</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>6160</v>
+      </c>
+      <c r="C15">
+        <v>-4250</v>
+      </c>
+      <c r="D15" s="3">
+        <v>810</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>14070</v>
+      </c>
+      <c r="C16">
+        <v>3250</v>
+      </c>
+      <c r="D16" s="3">
+        <v>581</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1770</v>
+      </c>
+      <c r="C17">
+        <v>1770</v>
+      </c>
+      <c r="D17" s="3">
+        <v>660</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>-1860</v>
+      </c>
+      <c r="C18">
+        <v>-1860</v>
+      </c>
+      <c r="D18" s="3">
+        <v>408</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>-1670</v>
+      </c>
+      <c r="C19">
+        <v>-1670</v>
+      </c>
+      <c r="D19" s="3">
+        <v>450</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>-6990</v>
+      </c>
+      <c r="C20">
+        <v>-1270</v>
+      </c>
+      <c r="D20" s="3">
+        <v>518</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>-9330</v>
+      </c>
+      <c r="C21">
+        <v>-870</v>
+      </c>
+      <c r="D21" s="3">
+        <v>955</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>-8000</v>
+      </c>
+      <c r="C22">
+        <v>-1660</v>
+      </c>
+      <c r="D22" s="3">
+        <v>636</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>-11190</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
+      <c r="D23" s="3">
+        <v>640</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>-15200</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>306</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>-9950</v>
+      </c>
+      <c r="C25">
+        <v>-1260</v>
+      </c>
+      <c r="D25" s="3">
+        <v>513</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>